--- a/biology/Médecine/Henri_Liouville/Henri_Liouville.xlsx
+++ b/biology/Médecine/Henri_Liouville/Henri_Liouville.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henri Liouville (Paris, 17 août 1837 - Id, 20 juin 1887), est un médecin et homme politique français, professeur de médecine à la faculté de Paris (1875) et député de la Meuse (1876-1887).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Henri Liouville est le fils de Félix Liouville (1803-1860), bâtonnier au barreau de Paris et député en 1846, et de Céline Deschamps (1813-1842), ainsi que le neveu de Joseph Liouville. Il est d'abord médecin, puis professeur à la Faculté de médecine de Paris, en 1875. Il a un frère et une sœur, Albert Liouville (1835-1893), père de Félix Liouville, et Sophie Liouville (1839-1923) qui épouse Ernest Picard. Durant la guerre de 1870, il soigne des blessés à Toul puis dans l'armée de la Loire où il rencontre Léon Gambetta et devient son secrétaire. En 1874, il est agrégé de médecine et travail à l'hôtel-Dieu de Paris. Il meurt en 1887 d'un arrêt cardiaque.
 Henri Liouville épouse le 25 juin 1878 à Paris, Marie Charlotte Thérèse Durvis, belle-fille de Jean-Martin Charcot (1825-1893), qui, devenue veuve, épousera en secondes noces, Pierre Waldeck-Rousseau (1846-1904), Président du Conseil (1899-1902). Il est aussi le beau-frère de Ernest Picard. 
@@ -544,7 +558,9 @@
           <t>Carrière politique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Henri Liouville  se présente en 1871 à la député mais échoue à la 20e position. Il est conseiller général du canton de Commercy en novembre 1871 et député de la Meuse de 1876 à 1887. Il siège à l'Union républicaine et fait partie des 363 qui refusent la confiance au gouvernement de Broglie en 1877.  
 Il est le premier à présenter une proposition de loi « tendant à rendre obligatoires la vaccination et la revaccination » contre la variole, le 20 mars 1880.
